--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.07.27.a.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.07.27.a.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhaisbsmithti\Documents\ESPMO Projects\Active Projects\ASG - (PM-Ron Opperman)\API Timeline Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\microconsulting-internal\Projects\ES ASG\ES ASG API Playbook Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2315809E-BC27-4EA9-A26B-135933E42F10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20498" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Plan Compares" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -317,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,35 +872,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:J29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:J29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:J29">
-    <sortCondition ref="F1:F29"/>
+    <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" name="Section_x000a_Number" dataDxfId="13"/>
-    <tableColumn id="3" name="Section Name" dataDxfId="12"/>
-    <tableColumn id="4" name="Primary_x000a_Assignment" dataDxfId="11"/>
-    <tableColumn id="7" name="Primary_x000a_Reviewer" dataDxfId="10"/>
-    <tableColumn id="5" name="V1" dataDxfId="9"/>
-    <tableColumn id="8" name="V2" dataDxfId="8"/>
-    <tableColumn id="9" name="Arch Review_x000a_(Jordan)" dataDxfId="7"/>
-    <tableColumn id="10" name="Editing Review_x000a_(Paul)"/>
-    <tableColumn id="6" name="Status as of 7/27" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section_x000a_Number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Section Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Primary_x000a_Assignment" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Primary_x000a_Reviewer" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="V1" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="V2" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Arch Review_x000a_(Jordan)" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Editing Review_x000a_(Paul)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status as of 7/27" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Section Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Due Date" dataDxfId="2"/>
-    <tableColumn id="5" name="Old Section" dataDxfId="1"/>
-    <tableColumn id="7" name="Old Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Section Name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Due Date" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Old Section" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Old Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1201,27 +1202,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.46484375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.53125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="17" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="46.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.53125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" style="17" customWidth="1"/>
+    <col min="9" max="10" width="34.86328125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -1253,808 +1255,811 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B3" s="17">
         <v>2.1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
-        <v>5</v>
-      </c>
-      <c r="B3" s="18">
-        <v>4</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>3</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B7" s="17">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18">
+      <c r="G8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24">
+        <v>5.3</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24">
+        <v>5.4</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24">
+        <v>5.5</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24">
+        <v>6</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24">
+        <v>8</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18">
         <v>9.1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B16" s="17">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B17" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H17" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B18" s="17">
         <v>9.4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="19" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B19" s="18">
         <v>9.5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B20" s="17">
         <v>9.6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+    <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B21" s="18">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="22" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B22" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+    <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17">
+        <v>10</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B24" s="18">
         <v>11</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B25" s="24">
         <v>12.1</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="E25" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+    <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28">
+        <v>12.2</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B27" s="24">
         <v>12.3</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="E27" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G27" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>4</v>
-      </c>
-      <c r="B16" s="24">
-        <v>3</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>7</v>
-      </c>
-      <c r="B17" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>11</v>
-      </c>
-      <c r="B18" s="24">
-        <v>6</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="22" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28">
+        <v>12.4</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>12</v>
-      </c>
-      <c r="B19" s="24">
-        <v>7</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="26" t="s">
+      <c r="G28" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28">
+        <v>13</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>1</v>
-      </c>
-      <c r="B20" s="24">
-        <v>1</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
-        <v>8</v>
-      </c>
-      <c r="B21" s="24">
-        <v>5.3</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
-        <v>3</v>
-      </c>
-      <c r="B22" s="28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
-        <v>25</v>
-      </c>
-      <c r="B23" s="28">
-        <v>12.2</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
-        <v>27</v>
-      </c>
-      <c r="B24" s="28">
-        <v>12.4</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
-        <v>28</v>
-      </c>
-      <c r="B25" s="28">
-        <v>13</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
-        <v>13</v>
-      </c>
-      <c r="B26" s="24">
-        <v>8</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>22</v>
-      </c>
-      <c r="B27" s="17">
-        <v>10</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
-        <v>9</v>
-      </c>
-      <c r="B28" s="24">
-        <v>5.4</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>10</v>
-      </c>
-      <c r="B29" s="24">
-        <v>5.5</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E31" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2062,24 +2067,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.53125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2139,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -2279,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -2339,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
@@ -2399,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
@@ -2419,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2539,7 +2544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
@@ -2599,7 +2604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
@@ -2639,7 +2644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>10</v>
       </c>
